--- a/Code_For_Figures_and_Analysis/Aflavus_BGCs_Analysis_Data/leporin/zol/Final_Results/Consolidated_Report.xlsx
+++ b/Code_For_Figures_and_Analysis/Aflavus_BGCs_Analysis_Data/leporin/zol/Final_Results/Consolidated_Report.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="127">
   <si>
     <t>Data Dictionary describing columns of "Overview" spreadsheets can be found on zol's Wiki page at:</t>
   </si>
@@ -200,58 +200,61 @@
     <t>AFLA_066840 (0.0)</t>
   </si>
   <si>
-    <t>demethylsterigmatocystin 6-O-methyltransferase [EC:2.1.1.109] (1.0426860462578278E-124)</t>
-  </si>
-  <si>
-    <t>cytochrome P450 monooxygenase (8.092366066023234E-240)</t>
-  </si>
-  <si>
-    <t>aspyridone synthetase trans-acting enoyl reductase (9.057970650966872E-157)</t>
-  </si>
-  <si>
-    <t>proline utilization trans-activator (7.53813518757182E-17)</t>
-  </si>
-  <si>
-    <t>cyanide hydratase [EC:4.2.1.66] (1.1829505039001843E-27)</t>
-  </si>
-  <si>
-    <t>proline utilization trans-activator (3.281509901658532E-32)</t>
+    <t>demethylsterigmatocystin 6-O-methyltransferase [EC:2.1.1.109] (1.4034692290463487E-125)</t>
+  </si>
+  <si>
+    <t>cytochrome P450 monooxygenase (8.140827068184449E-240)</t>
+  </si>
+  <si>
+    <t>aspyridone synthetase trans-acting enoyl reductase (1.7824382009186613E-155)</t>
+  </si>
+  <si>
+    <t>proline utilization trans-activator (9.099031466599704E-19)</t>
+  </si>
+  <si>
+    <t>retinol dehydrogenase 11 [EC:1.1.1.300] (1.2884735935118986E-16)</t>
+  </si>
+  <si>
+    <t>proline utilization trans-activator (1.9601422286166682E-34)</t>
   </si>
   <si>
     <t>NA (0.0)</t>
   </si>
   <si>
-    <t>MFS transporter, MCT family, aspergillic acid transporter (1.0799511688318882E-101)</t>
-  </si>
-  <si>
-    <t>transcriptional regulatory protein GAL4 (2.2958088369882693E-28)</t>
+    <t>MFS transporter, MCT family, aspergillic acid transporter (9.772194792637874E-102)</t>
+  </si>
+  <si>
+    <t>transcriptional regulatory protein GAL4 (1.5934655871578428E-27)</t>
   </si>
   <si>
     <t>hybrid polyketide synthase / nonribosomal peptide synthetase ACE1 (0.0)</t>
   </si>
   <si>
-    <t>putative NAD(P)H quinone oxidoreductase, PIG3 family (8.837093377794932E-18)</t>
-  </si>
-  <si>
-    <t>monocarboxylate transporter (2.106370391937002E-36)</t>
-  </si>
-  <si>
-    <t>sulfolipid-1 biosynthesis phthioceranic/hydroxyphthioceranic acid synthase (1.3517998963194414E-174)</t>
-  </si>
-  <si>
-    <t>biolip::6inwB; SwissProt::B8NJH3 (9.74E-284)</t>
+    <t>pentalenene oxygenase (1.9271362282400023E-11)</t>
+  </si>
+  <si>
+    <t>putative NAD(P)H quinone oxidoreductase, PIG3 family (8.990284766386384E-18)</t>
+  </si>
+  <si>
+    <t>monocarboxylate transporter (2.1428844120377227E-36)</t>
+  </si>
+  <si>
+    <t>sulfolipid-1 biosynthesis phthioceranic/hydroxyphthioceranic acid synthase (1.3752334048682249E-174)</t>
+  </si>
+  <si>
+    <t>SwissProt::B8NJH3; biolip::6inwB (9.87E-284)</t>
   </si>
   <si>
     <t>SwissProt::B8NJH2 (0.0)</t>
   </si>
   <si>
-    <t>SwissProt::B8NJH1 (8.27E-301)</t>
-  </si>
-  <si>
-    <t>SwissProt::B8NJG9 (3.65E-220)</t>
-  </si>
-  <si>
-    <t>SwissProt::B8NJH0 (1.22E-256)</t>
+    <t>SwissProt::B8NJH1 (8.38E-301)</t>
+  </si>
+  <si>
+    <t>SwissProt::B8NJG9 (3.70E-220)</t>
+  </si>
+  <si>
+    <t>SwissProt::B8NJH0 (1.24E-256)</t>
   </si>
   <si>
     <t>SwissProt::B8NJG9 (0.0)</t>
@@ -260,7 +263,7 @@
     <t>SwissProt::B8NJG8 (0.0)</t>
   </si>
   <si>
-    <t>B8NJG7 (2.57E-269)</t>
+    <t>B8NJG7 (2.61E-269)</t>
   </si>
   <si>
     <t>B8NJG5 (0.0)</t>
@@ -302,16 +305,16 @@
     <t>BGC0001445|c1|1-11841|-|AFLA_066840|hybrid_PKS/NRPS_enzyme,_putative|EED49862.1 (0.0)</t>
   </si>
   <si>
-    <t>sp|Q5UQ90|YL532_MIMIV Cytochrome P450-like protein L532[XhXs] (3.0554139676859476E-30)</t>
-  </si>
-  <si>
-    <t>sp|Q5UQ90|YL532_MIMIV Cytochrome P450-like protein L532[XhXs] (2.121200731871266E-31)</t>
-  </si>
-  <si>
-    <t>sp|O30409|TYCC_BREPA Tyrocidine synthase 3[Xh] (3.772161083675063E-56)</t>
-  </si>
-  <si>
-    <t>VFG026091(gb|WP_004194140) (wcbR) capsular polysaccharide biosynthesis fatty acid synthase [Capsule I (VF0436) - Immune modulation (VFC0258)] [Burkholderia mallei ATCC 23344]; VFG026092(gb|WP_004202217) (wcbR) capsular polysaccharide biosynthesis fatty acid synthase [Capsule I (VF0436) - Immune modulation (VFC0258)] [Burkholderia mallei NCTC 10229] (2.38E-164)</t>
+    <t>sp|Q5UQ90|YL532_MIMIV Cytochrome P450-like protein L532[XhXs] (1.0478328766055621E-18)</t>
+  </si>
+  <si>
+    <t>sp|Q0CS60|ATATC_ASPTN Bimodular acetylaranotin synthesis protein ataTC[Xh] (4.7093912123047965E-30)</t>
+  </si>
+  <si>
+    <t>sp|O30409|TYCC_BREPA Tyrocidine synthase 3[Xh] (5.845941296229438E-56)</t>
+  </si>
+  <si>
+    <t>VFG026092(gb|WP_004202217) (wcbR) capsular polysaccharide biosynthesis fatty acid synthase [Capsule I (VF0436) - Immune modulation (VFC0258)] [Burkholderia mallei NCTC 10229]; VFG026091(gb|WP_004194140) (wcbR) capsular polysaccharide biosynthesis fatty acid synthase [Capsule I (VF0436) - Immune modulation (VFC0258)] [Burkholderia mallei ATCC 23344] (2.38E-164)</t>
   </si>
   <si>
     <t>O-methyltransferase domain</t>
@@ -1017,7 +1020,7 @@
         <v>48</v>
       </c>
       <c r="X2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s">
         <v>48</v>
@@ -1026,7 +1029,7 @@
         <v>48</v>
       </c>
       <c r="AA2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -1035,13 +1038,13 @@
         <v>48</v>
       </c>
       <c r="AD2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -1112,10 +1115,10 @@
         <v>61</v>
       </c>
       <c r="W3" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="X3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s">
         <v>48</v>
@@ -1124,22 +1127,22 @@
         <v>48</v>
       </c>
       <c r="AA3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC3" t="s">
         <v>48</v>
       </c>
       <c r="AD3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AE3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -1210,10 +1213,10 @@
         <v>62</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
         <v>48</v>
@@ -1222,7 +1225,7 @@
         <v>48</v>
       </c>
       <c r="AA4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -1234,10 +1237,10 @@
         <v>48</v>
       </c>
       <c r="AE4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -1311,7 +1314,7 @@
         <v>48</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
         <v>48</v>
@@ -1320,7 +1323,7 @@
         <v>48</v>
       </c>
       <c r="AA5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -1329,13 +1332,13 @@
         <v>48</v>
       </c>
       <c r="AD5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AE5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -1409,7 +1412,7 @@
         <v>48</v>
       </c>
       <c r="X6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s">
         <v>48</v>
@@ -1418,7 +1421,7 @@
         <v>48</v>
       </c>
       <c r="AA6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -1430,10 +1433,10 @@
         <v>48</v>
       </c>
       <c r="AE6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1507,7 +1510,7 @@
         <v>48</v>
       </c>
       <c r="X7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s">
         <v>48</v>
@@ -1516,7 +1519,7 @@
         <v>48</v>
       </c>
       <c r="AA7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -1525,13 +1528,13 @@
         <v>48</v>
       </c>
       <c r="AD7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1605,7 +1608,7 @@
         <v>48</v>
       </c>
       <c r="X8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s">
         <v>48</v>
@@ -1614,22 +1617,22 @@
         <v>48</v>
       </c>
       <c r="AA8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC8" t="s">
         <v>48</v>
       </c>
       <c r="AD8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AE8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1700,10 +1703,10 @@
         <v>67</v>
       </c>
       <c r="W9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s">
         <v>48</v>
@@ -1712,7 +1715,7 @@
         <v>48</v>
       </c>
       <c r="AA9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -1721,13 +1724,13 @@
         <v>48</v>
       </c>
       <c r="AD9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1801,7 +1804,7 @@
         <v>48</v>
       </c>
       <c r="X10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y10" t="s">
         <v>48</v>
@@ -1810,7 +1813,7 @@
         <v>48</v>
       </c>
       <c r="AA10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -1819,13 +1822,13 @@
         <v>48</v>
       </c>
       <c r="AD10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1908,7 +1911,7 @@
         <v>48</v>
       </c>
       <c r="AA11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
@@ -1920,10 +1923,10 @@
         <v>48</v>
       </c>
       <c r="AE11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1994,10 +1997,10 @@
         <v>69</v>
       </c>
       <c r="W12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y12" t="s">
         <v>48</v>
@@ -2006,22 +2009,22 @@
         <v>48</v>
       </c>
       <c r="AA12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AD12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AE12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
